--- a/target/test-classes/FlowerShop.xlsx
+++ b/target/test-classes/FlowerShop.xlsx
@@ -427,7 +427,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>95.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -441,7 +441,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>94.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -455,7 +455,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>95.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>94.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -483,7 +483,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>95.0</v>
+        <v>91.0</v>
       </c>
     </row>
   </sheetData>
